--- a/nop-report/nop-report-demo/src/main/resources/_vfs/nop/report/demo/base/同比环比等财务统计表.xpt.xlsx
+++ b/nop-report/nop-report-demo/src/main/resources/_vfs/nop/report/demo/base/同比环比等财务统计表.xpt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-report\nop-report-demo\src\main\resources\_vfs\nop\report\demo\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5A9B01-AB36-44AF-9B8D-D04EAE6655A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4034E7C6-25D4-454B-8BFE-4581A830EAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,19 +530,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -885,20 +885,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="24.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -910,14 +910,14 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
@@ -977,204 +977,199 @@
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="A7:L7"/>
     <mergeCell ref="A8:L8"/>
     <mergeCell ref="A9:L9"/>
@@ -1185,6 +1180,11 @@
     <mergeCell ref="A12:L12"/>
     <mergeCell ref="A13:L13"/>
     <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.19599999487400055" right="0.15700000524520874" top="0.15700000524520874" bottom="7.8000001609325409E-2" header="0" footer="0"/>
